--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>866245.4723939693</v>
+        <v>863516.7291081845</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10367347.96096031</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>371.9595551114979</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7.634490799661973</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>296.2343098005529</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.841729711032171</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>369.3088179022125</v>
+        <v>189.4266297043736</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>17.14924821715323</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>339.2769836162016</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>357.8548625742367</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238013</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035167</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>12.07742161339092</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146332</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>36.12932374479197</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4423155261916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754683</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>43.84520587350978</v>
+        <v>103.1983720868896</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3963959210062</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856587</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503962</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.623597659129674</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1557845699759</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
-        <v>107.5419779170878</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>270.4828772896299</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>2.268486125806171</v>
+        <v>1.799772605715493</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.13627195705837</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>122.6028762599948</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503966</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526.106027515566</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1526.106027515566</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1167.840328908816</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>1167.840328908816</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>756.854424119208</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482878</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>377.5443364482878</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>230.6543889503775</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
-        <v>61.65458868870988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>61.65458868870988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>61.65458868870988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.58524627281</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.58524627281</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.58524627281</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.5898833044448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>541.5898833044448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>541.5898833044448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>723.2383481346845</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>723.2383481346845</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>723.2383481346845</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>723.2383481346845</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>723.2383481346845</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>723.2383481346845</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>723.2383481346845</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>723.2383481346845</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>723.2383481346845</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1099.149698721037</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>730.1871817806255</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>371.9214831738749</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>371.9214831738749</v>
       </c>
       <c r="F8" t="n">
-        <v>426.9821918225993</v>
+        <v>364.9759824246715</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1875.888870760971</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1875.888870760971</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1485.749538785159</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>358.3142643329351</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>358.3142643329351</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>829.1149055854951</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.9627291631748</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.9627291631748</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.9627291631748</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.9627291631748</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>539.9627291631748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2024.363343444098</v>
+        <v>1535.258832689352</v>
       </c>
       <c r="C11" t="n">
-        <v>1655.400826503686</v>
+        <v>1166.296315748941</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648937</v>
+        <v>1166.29631574894</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506926</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610851</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856287</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882246</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234596</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234596</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750376</v>
+        <v>3622.786021971442</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382984</v>
+        <v>3369.29530560405</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039414</v>
+        <v>3038.232418260479</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769299</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.96318350822</v>
+        <v>2311.998004729286</v>
       </c>
       <c r="Y11" t="n">
-        <v>2410.96318350822</v>
+        <v>1921.858672753474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792131</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376509</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>900.449939664961</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908851</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259918</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125667</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.5135230760972</v>
+        <v>395.3603427349919</v>
       </c>
       <c r="C13" t="n">
-        <v>385.5135230760972</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>373.3141073049954</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226023</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600402</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888922</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082523</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370157</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920203</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360492</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154605</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176446</v>
+        <v>834.2956531176424</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196273</v>
+        <v>797.8013867087617</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5135230760972</v>
+        <v>577.0088075652316</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5279,22 +5279,22 @@
         <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.49737412729</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1016.37775261609</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.7074548523136</v>
+        <v>494.0589900220739</v>
       </c>
       <c r="C16" t="n">
-        <v>631.4193681113949</v>
+        <v>389.8182101363267</v>
       </c>
       <c r="D16" t="n">
-        <v>631.4193681113949</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113949</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5461,10 +5461,10 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
         <v>1668.591243136709</v>
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111873</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075949</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,43 +5577,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756259</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468454</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589153</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190827</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190827</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138359</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>747.358461785929</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2418223735933</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3287287912001</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000586</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648814</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138359</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138359</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819414</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111862</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075943</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014788</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654528</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933892003</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446608</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>962.6357307816126</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C22" t="n">
-        <v>793.6995478537057</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>643.5829084413699</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>495.6698148589767</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>348.7798673610665</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>181.583768075947</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611852</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611852</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611852</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111873</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075949</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,43 +6051,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452672</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.528408326422</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565708</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.917417812158</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>344.917417812158</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>197.004324229765</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>197.004324229765</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611852</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138347</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703046</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>666.6476097656489</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>516.5309703533133</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6552,16 +6552,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232835</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232835</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232835</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1954.146591037918</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1699.462102832031</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.055381897053</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2628027535233</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958746</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679677</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261143</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057239</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>788.019146177817</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654811</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830881</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851781</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2420.562808876161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2420.562808876161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220358</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977511</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935963</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,13 +7354,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854706</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121639</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>159.7974209002381</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>176.8008973295432</v>
+        <v>366.568374812572</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.750777300912887e-11</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.750777300912887e-11</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>15.40605800448134</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24.07550749802505</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114094</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>136.5380514048214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034033</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>189.5803316442452</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.291526137289</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728928</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>123.4016152251181</v>
+        <v>64.04844901173823</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.02465210192503</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823165</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>134.6711151870942</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>63.3683537222928</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E28" t="n">
-        <v>38.89198472948135</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>15.70159709961428</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3469868924062</v>
+        <v>146.8157004124969</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>154.8900140445862</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.22910392194245</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>907773.2403199045</v>
+        <v>907773.2403199038</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>988162.2719766871</v>
+        <v>988162.271976687</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>993634.1363403562</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403562</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993634.1363403563</v>
+        <v>993634.1363403562</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26326,22 +26326,22 @@
         <v>421406.8801099661</v>
       </c>
       <c r="G2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="H2" t="n">
         <v>423751.9648372531</v>
       </c>
-      <c r="H2" t="n">
-        <v>423751.9648372529</v>
-      </c>
       <c r="I2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="J2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="K2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="L2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="K2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="L2" t="n">
-        <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372532</v>
@@ -26350,10 +26350,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>588754.3687919681</v>
+        <v>588754.368791967</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051371</v>
+        <v>166521.3471051381</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557633</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925953</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>76530.8113237003</v>
+        <v>76530.81132369999</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848892</v>
+        <v>43782.40655848923</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26430,25 +26430,25 @@
         <v>5671.003945457393</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566683024</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682743</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566683024</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682737</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682738</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
@@ -26457,7 +26457,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621472</v>
+        <v>86093.72216214711</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-451702.4435622386</v>
       </c>
       <c r="C6" t="n">
-        <v>138265.4356523059</v>
+        <v>138265.435652306</v>
       </c>
       <c r="D6" t="n">
-        <v>-17538.37044148933</v>
+        <v>-17538.37044148939</v>
       </c>
       <c r="E6" t="n">
-        <v>-293472.0685921469</v>
+        <v>-293682.0328359906</v>
       </c>
       <c r="F6" t="n">
-        <v>149072.4005455331</v>
+        <v>149026.4955499665</v>
       </c>
       <c r="G6" t="n">
-        <v>305784.6622110867</v>
+        <v>305749.924285649</v>
       </c>
       <c r="H6" t="n">
-        <v>316951.8984466631</v>
+        <v>316917.1605212275</v>
       </c>
       <c r="I6" t="n">
-        <v>316951.898446663</v>
+        <v>316917.1605212277</v>
       </c>
       <c r="J6" t="n">
-        <v>140528.6792540681</v>
+        <v>140493.9413286345</v>
       </c>
       <c r="K6" t="n">
-        <v>316951.8984466634</v>
+        <v>316917.1605212275</v>
       </c>
       <c r="L6" t="n">
-        <v>316951.8984466634</v>
+        <v>316917.1605212276</v>
       </c>
       <c r="M6" t="n">
-        <v>240421.087122963</v>
+        <v>240386.3491975276</v>
       </c>
       <c r="N6" t="n">
-        <v>273169.4918881744</v>
+        <v>273134.7539627384</v>
       </c>
       <c r="O6" t="n">
-        <v>313928.6004694389</v>
+        <v>313893.8625440031</v>
       </c>
       <c r="P6" t="n">
-        <v>316951.8984466633</v>
+        <v>316917.1605212276</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,19 +26744,19 @@
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808649</v>
+        <v>981.388327808648</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>618.6941671564917</v>
+        <v>618.6941671564908</v>
       </c>
       <c r="F3" t="n">
-        <v>145.870781221829</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625284737</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>307.1010550540934</v>
+        <v>307.1010550540924</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173589</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540934</v>
+        <v>307.1010550540922</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540934</v>
+        <v>307.1010550540924</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173589</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>41.82461490929705</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>37.56546838887502</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>85.69606027170886</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>30.38987441310772</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.28102024388213</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>43.60808604372426</v>
+        <v>223.4902742415632</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>206.2236565036055</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485652</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508994</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.869763472606</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216977</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857431</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898392</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294413</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615141</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188521</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596483</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783043</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202557</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256419</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845334</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147144</v>
+        <v>237.3367583732568</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431813</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>266.1421801896164</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691795</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263711</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570616</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929614</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282691</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,22 +32072,22 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>671.3535095519898</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32096,10 +32096,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862103</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496706</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485282</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>592.187494140966</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485282</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963342</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071767</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366855</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>271.6502746876386</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>377.4642727362752</v>
+        <v>567.231750219304</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276254</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584704</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077545</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062445</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156621</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116376</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458967</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457677</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313811</v>
+        <v>105.9950462899235</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987369</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1677727752861</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670185</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882117</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190458</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998369</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>540.0117974686565</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35744,10 +35744,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396584</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764192</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663373</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610918</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625067</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396584</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>261.34878191646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238434</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,10 +36847,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>237.2862717533522</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
